--- a/natmiOut/OldD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H2">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I2">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J2">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.570384905948909</v>
+        <v>11.451657</v>
       </c>
       <c r="N2">
-        <v>8.570384905948909</v>
+        <v>34.354971</v>
       </c>
       <c r="O2">
-        <v>0.6994370645599617</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P2">
-        <v>0.6994370645599617</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q2">
-        <v>58.34876114806904</v>
+        <v>113.177710973502</v>
       </c>
       <c r="R2">
-        <v>58.34876114806904</v>
+        <v>1018.599398761518</v>
       </c>
       <c r="S2">
-        <v>0.01976744137190924</v>
+        <v>0.02540930211436378</v>
       </c>
       <c r="T2">
-        <v>0.01976744137190924</v>
+        <v>0.02902917450079753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H3">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I3">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J3">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486649506573794</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N3">
-        <v>0.486649506573794</v>
+        <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03971591778932378</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P3">
-        <v>0.03971591778932378</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q3">
-        <v>3.313199597627177</v>
+        <v>5.178878721565998</v>
       </c>
       <c r="R3">
-        <v>3.313199597627177</v>
+        <v>46.60990849409399</v>
       </c>
       <c r="S3">
-        <v>0.001122448489237478</v>
+        <v>0.001162699730521408</v>
       </c>
       <c r="T3">
-        <v>0.001122448489237478</v>
+        <v>0.00132834082641948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H4">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I4">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J4">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.19622658865231</v>
+        <v>0.123396</v>
       </c>
       <c r="N4">
-        <v>3.19622658865231</v>
+        <v>0.370188</v>
       </c>
       <c r="O4">
-        <v>0.2608470176507144</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P4">
-        <v>0.2608470176507144</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q4">
-        <v>21.76050012257091</v>
+        <v>1.219533280056</v>
       </c>
       <c r="R4">
-        <v>21.76050012257091</v>
+        <v>10.975799520504</v>
       </c>
       <c r="S4">
-        <v>0.007372040158740878</v>
+        <v>0.0002737949838791044</v>
       </c>
       <c r="T4">
-        <v>0.007372040158740878</v>
+        <v>0.0003128004983645959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>119.351369569889</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H5">
-        <v>119.351369569889</v>
+        <v>29.649258</v>
       </c>
       <c r="I5">
-        <v>0.4954478077180193</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J5">
-        <v>0.4954478077180193</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>8.570384905948909</v>
+        <v>0.104921</v>
       </c>
       <c r="N5">
-        <v>8.570384905948909</v>
+        <v>0.314763</v>
       </c>
       <c r="O5">
-        <v>0.6994370645599617</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P5">
-        <v>0.6994370645599617</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q5">
-        <v>1022.887176266107</v>
+        <v>1.036943266206</v>
       </c>
       <c r="R5">
-        <v>1022.887176266107</v>
+        <v>9.332489395853999</v>
       </c>
       <c r="S5">
-        <v>0.3465345602729597</v>
+        <v>0.0002328020641153645</v>
       </c>
       <c r="T5">
-        <v>0.3465345602729597</v>
+        <v>0.0002659676252788726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>119.351369569889</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H6">
-        <v>119.351369569889</v>
+        <v>29.649258</v>
       </c>
       <c r="I6">
-        <v>0.4954478077180193</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J6">
-        <v>0.4954478077180193</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486649506573794</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N6">
-        <v>0.486649506573794</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O6">
-        <v>0.03971591778932378</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P6">
-        <v>0.03971591778932378</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q6">
-        <v>58.08228511009302</v>
+        <v>44.727788420883</v>
       </c>
       <c r="R6">
-        <v>58.08228511009302</v>
+        <v>268.366730525298</v>
       </c>
       <c r="S6">
-        <v>0.01967716440022955</v>
+        <v>0.0100417465516655</v>
       </c>
       <c r="T6">
-        <v>0.01967716440022955</v>
+        <v>0.007648212496590474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>119.351369569889</v>
+        <v>126.153142</v>
       </c>
       <c r="H7">
-        <v>119.351369569889</v>
+        <v>378.459426</v>
       </c>
       <c r="I7">
-        <v>0.4954478077180193</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J7">
-        <v>0.4954478077180193</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19622658865231</v>
+        <v>11.451657</v>
       </c>
       <c r="N7">
-        <v>3.19622658865231</v>
+        <v>34.354971</v>
       </c>
       <c r="O7">
-        <v>0.2608470176507144</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P7">
-        <v>0.2608470176507144</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q7">
-        <v>381.4740208113474</v>
+        <v>1444.662511656294</v>
       </c>
       <c r="R7">
-        <v>381.4740208113474</v>
+        <v>13001.96260490665</v>
       </c>
       <c r="S7">
-        <v>0.1292360830448299</v>
+        <v>0.3243382985591985</v>
       </c>
       <c r="T7">
-        <v>0.1292360830448299</v>
+        <v>0.3705443393836592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.1727298866434</v>
+        <v>126.153142</v>
       </c>
       <c r="H8">
-        <v>50.1727298866434</v>
+        <v>378.459426</v>
       </c>
       <c r="I8">
-        <v>0.2082755239353131</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J8">
-        <v>0.2082755239353131</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.570384905948909</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N8">
-        <v>8.570384905948909</v>
+        <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.6994370645599617</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P8">
-        <v>0.6994370645599617</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q8">
-        <v>429.9996069107403</v>
+        <v>66.10605460303532</v>
       </c>
       <c r="R8">
-        <v>429.9996069107403</v>
+        <v>594.954491427318</v>
       </c>
       <c r="S8">
-        <v>0.1456756210810035</v>
+        <v>0.0148413384450797</v>
       </c>
       <c r="T8">
-        <v>0.1456756210810035</v>
+        <v>0.01695567243871944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.1727298866434</v>
+        <v>126.153142</v>
       </c>
       <c r="H9">
-        <v>50.1727298866434</v>
+        <v>378.459426</v>
       </c>
       <c r="I9">
-        <v>0.2082755239353131</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J9">
-        <v>0.2082755239353131</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.486649506573794</v>
+        <v>0.123396</v>
       </c>
       <c r="N9">
-        <v>0.486649506573794</v>
+        <v>0.370188</v>
       </c>
       <c r="O9">
-        <v>0.03971591778932378</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P9">
-        <v>0.03971591778932378</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q9">
-        <v>24.41653424279526</v>
+        <v>15.566793110232</v>
       </c>
       <c r="R9">
-        <v>24.41653424279526</v>
+        <v>140.101137992088</v>
       </c>
       <c r="S9">
-        <v>0.008271853586143232</v>
+        <v>0.003494869667246484</v>
       </c>
       <c r="T9">
-        <v>0.008271853586143232</v>
+        <v>0.003992757493748373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.1727298866434</v>
+        <v>126.153142</v>
       </c>
       <c r="H10">
-        <v>50.1727298866434</v>
+        <v>378.459426</v>
       </c>
       <c r="I10">
-        <v>0.2082755239353131</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J10">
-        <v>0.2082755239353131</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.19622658865231</v>
+        <v>0.104921</v>
       </c>
       <c r="N10">
-        <v>3.19622658865231</v>
+        <v>0.314763</v>
       </c>
       <c r="O10">
-        <v>0.2608470176507144</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P10">
-        <v>0.2608470176507144</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q10">
-        <v>160.36341328896</v>
+        <v>13.236113811782</v>
       </c>
       <c r="R10">
-        <v>160.36341328896</v>
+        <v>119.125024306038</v>
       </c>
       <c r="S10">
-        <v>0.05432804926816642</v>
+        <v>0.002971613507384099</v>
       </c>
       <c r="T10">
-        <v>0.05432804926816642</v>
+        <v>0.003394956959719708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.2600322054289</v>
+        <v>126.153142</v>
       </c>
       <c r="H11">
-        <v>34.2600322054289</v>
+        <v>378.459426</v>
       </c>
       <c r="I11">
-        <v>0.1422192129817909</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J11">
-        <v>0.1422192129817909</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.570384905948909</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N11">
-        <v>8.570384905948909</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O11">
-        <v>0.6994370645599617</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P11">
-        <v>0.6994370645599617</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q11">
-        <v>293.6216628907314</v>
+        <v>570.9300762945511</v>
       </c>
       <c r="R11">
-        <v>293.6216628907314</v>
+        <v>3425.580457767307</v>
       </c>
       <c r="S11">
-        <v>0.09947338885201185</v>
+        <v>0.1281783724901583</v>
       </c>
       <c r="T11">
-        <v>0.09947338885201185</v>
+        <v>0.09762598819119379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.2600322054289</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H12">
-        <v>34.2600322054289</v>
+        <v>164.283508</v>
       </c>
       <c r="I12">
-        <v>0.1422192129817909</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J12">
-        <v>0.1422192129817909</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.486649506573794</v>
+        <v>11.451657</v>
       </c>
       <c r="N12">
-        <v>0.486649506573794</v>
+        <v>34.354971</v>
       </c>
       <c r="O12">
-        <v>0.03971591778932378</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P12">
-        <v>0.03971591778932378</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q12">
-        <v>16.67262776797427</v>
+        <v>627.1061281242519</v>
       </c>
       <c r="R12">
-        <v>16.67262776797427</v>
+        <v>5643.955153118267</v>
       </c>
       <c r="S12">
-        <v>0.005648366570847138</v>
+        <v>0.1407903458217909</v>
       </c>
       <c r="T12">
-        <v>0.005648366570847138</v>
+        <v>0.1608476887123167</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.2600322054289</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H13">
-        <v>34.2600322054289</v>
+        <v>164.283508</v>
       </c>
       <c r="I13">
-        <v>0.1422192129817909</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J13">
-        <v>0.1422192129817909</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.19622658865231</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N13">
-        <v>3.19622658865231</v>
+        <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.2608470176507144</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P13">
-        <v>0.2608470176507144</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q13">
-        <v>109.5028258630763</v>
+        <v>28.69563764076044</v>
       </c>
       <c r="R13">
-        <v>109.5028258630763</v>
+        <v>258.2607387668439</v>
       </c>
       <c r="S13">
-        <v>0.03709745755893194</v>
+        <v>0.006442400362286015</v>
       </c>
       <c r="T13">
-        <v>0.03709745755893194</v>
+        <v>0.007360200743769412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.3036323943796</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H14">
-        <v>30.3036323943796</v>
+        <v>164.283508</v>
       </c>
       <c r="I14">
-        <v>0.125795525344989</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J14">
-        <v>0.125795525344989</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>8.570384905948909</v>
+        <v>0.123396</v>
       </c>
       <c r="N14">
-        <v>8.570384905948909</v>
+        <v>0.370188</v>
       </c>
       <c r="O14">
-        <v>0.6994370645599617</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P14">
-        <v>0.6994370645599617</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q14">
-        <v>259.7137936682153</v>
+        <v>6.757309251055999</v>
       </c>
       <c r="R14">
-        <v>259.7137936682153</v>
+        <v>60.81578325950399</v>
       </c>
       <c r="S14">
-        <v>0.08798605298207739</v>
+        <v>0.0015170700199129</v>
       </c>
       <c r="T14">
-        <v>0.08798605298207739</v>
+        <v>0.001733195588755849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.3036323943796</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H15">
-        <v>30.3036323943796</v>
+        <v>164.283508</v>
       </c>
       <c r="I15">
-        <v>0.125795525344989</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J15">
-        <v>0.125795525344989</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.486649506573794</v>
+        <v>0.104921</v>
       </c>
       <c r="N15">
-        <v>0.486649506573794</v>
+        <v>0.314763</v>
       </c>
       <c r="O15">
-        <v>0.03971591778932378</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P15">
-        <v>0.03971591778932378</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q15">
-        <v>14.74724775211847</v>
+        <v>5.745596647622667</v>
       </c>
       <c r="R15">
-        <v>14.74724775211847</v>
+        <v>51.71036982860399</v>
       </c>
       <c r="S15">
-        <v>0.00499608474286638</v>
+        <v>0.001289932441564406</v>
       </c>
       <c r="T15">
-        <v>0.00499608474286638</v>
+        <v>0.001473699425976956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.3036323943796</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H16">
-        <v>30.3036323943796</v>
+        <v>164.283508</v>
       </c>
       <c r="I16">
-        <v>0.125795525344989</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J16">
-        <v>0.125795525344989</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.19622658865231</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N16">
-        <v>3.19622658865231</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O16">
-        <v>0.2608470176507144</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P16">
-        <v>0.2608470176507144</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q16">
-        <v>96.85727559166153</v>
+        <v>247.832103820758</v>
       </c>
       <c r="R16">
-        <v>96.85727559166153</v>
+        <v>1486.992622924548</v>
       </c>
       <c r="S16">
-        <v>0.03281338762004525</v>
+        <v>0.05564029123273546</v>
       </c>
       <c r="T16">
-        <v>0.03281338762004525</v>
+        <v>0.04237796368696043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>45.13783733333333</v>
+      </c>
+      <c r="H17">
+        <v>135.413512</v>
+      </c>
+      <c r="I17">
+        <v>0.1695353166443174</v>
+      </c>
+      <c r="J17">
+        <v>0.176222356222004</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.451657</v>
+      </c>
+      <c r="N17">
+        <v>34.354971</v>
+      </c>
+      <c r="O17">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P17">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q17">
+        <v>516.9030308631279</v>
+      </c>
+      <c r="R17">
+        <v>4652.127277768152</v>
+      </c>
+      <c r="S17">
+        <v>0.1160488682979866</v>
+      </c>
+      <c r="T17">
+        <v>0.1325814787545051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>45.13783733333333</v>
+      </c>
+      <c r="H18">
+        <v>135.413512</v>
+      </c>
+      <c r="I18">
+        <v>0.1695353166443174</v>
+      </c>
+      <c r="J18">
+        <v>0.176222356222004</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.572043</v>
+      </c>
+      <c r="O18">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P18">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q18">
+        <v>23.65287373833511</v>
+      </c>
+      <c r="R18">
+        <v>212.875863645016</v>
+      </c>
+      <c r="S18">
+        <v>0.005310259498276734</v>
+      </c>
+      <c r="T18">
+        <v>0.006066772276002459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>45.13783733333333</v>
+      </c>
+      <c r="H19">
+        <v>135.413512</v>
+      </c>
+      <c r="I19">
+        <v>0.1695353166443174</v>
+      </c>
+      <c r="J19">
+        <v>0.176222356222004</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.123396</v>
+      </c>
+      <c r="N19">
+        <v>0.370188</v>
+      </c>
+      <c r="O19">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P19">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q19">
+        <v>5.569828575584</v>
+      </c>
+      <c r="R19">
+        <v>50.128457180256</v>
+      </c>
+      <c r="S19">
+        <v>0.001250471102347752</v>
+      </c>
+      <c r="T19">
+        <v>0.001428616326212959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>45.13783733333333</v>
+      </c>
+      <c r="H20">
+        <v>135.413512</v>
+      </c>
+      <c r="I20">
+        <v>0.1695353166443174</v>
+      </c>
+      <c r="J20">
+        <v>0.176222356222004</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.104921</v>
+      </c>
+      <c r="N20">
+        <v>0.314763</v>
+      </c>
+      <c r="O20">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P20">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q20">
+        <v>4.735907030850666</v>
+      </c>
+      <c r="R20">
+        <v>42.623163277656</v>
+      </c>
+      <c r="S20">
+        <v>0.001063249039915625</v>
+      </c>
+      <c r="T20">
+        <v>0.001214722143040211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>45.13783733333333</v>
+      </c>
+      <c r="H21">
+        <v>135.413512</v>
+      </c>
+      <c r="I21">
+        <v>0.1695353166443174</v>
+      </c>
+      <c r="J21">
+        <v>0.176222356222004</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N21">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P21">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q21">
+        <v>204.279881610012</v>
+      </c>
+      <c r="R21">
+        <v>1225.679289660072</v>
+      </c>
+      <c r="S21">
+        <v>0.04586246870579071</v>
+      </c>
+      <c r="T21">
+        <v>0.03493076672224324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>30.3092165</v>
+      </c>
+      <c r="H22">
+        <v>60.618433</v>
+      </c>
+      <c r="I22">
+        <v>0.1138398053637809</v>
+      </c>
+      <c r="J22">
+        <v>0.07888668520572513</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.451657</v>
+      </c>
+      <c r="N22">
+        <v>34.354971</v>
+      </c>
+      <c r="O22">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P22">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q22">
+        <v>347.0907512967405</v>
+      </c>
+      <c r="R22">
+        <v>2082.544507780443</v>
+      </c>
+      <c r="S22">
+        <v>0.07792465216817497</v>
+      </c>
+      <c r="T22">
+        <v>0.05935066130565236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>30.3092165</v>
+      </c>
+      <c r="H23">
+        <v>60.618433</v>
+      </c>
+      <c r="I23">
+        <v>0.1138398053637809</v>
+      </c>
+      <c r="J23">
+        <v>0.07888668520572513</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N23">
+        <v>1.572043</v>
+      </c>
+      <c r="O23">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P23">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q23">
+        <v>15.88246387810316</v>
+      </c>
+      <c r="R23">
+        <v>95.29478326861899</v>
+      </c>
+      <c r="S23">
+        <v>0.003565740281614974</v>
+      </c>
+      <c r="T23">
+        <v>0.002715816341423245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>30.3092165</v>
+      </c>
+      <c r="H24">
+        <v>60.618433</v>
+      </c>
+      <c r="I24">
+        <v>0.1138398053637809</v>
+      </c>
+      <c r="J24">
+        <v>0.07888668520572513</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.123396</v>
+      </c>
+      <c r="N24">
+        <v>0.370188</v>
+      </c>
+      <c r="O24">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P24">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q24">
+        <v>3.740036079234</v>
+      </c>
+      <c r="R24">
+        <v>22.440216475404</v>
+      </c>
+      <c r="S24">
+        <v>0.0008396680392142482</v>
+      </c>
+      <c r="T24">
+        <v>0.0006395261578715011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30.3092165</v>
+      </c>
+      <c r="H25">
+        <v>60.618433</v>
+      </c>
+      <c r="I25">
+        <v>0.1138398053637809</v>
+      </c>
+      <c r="J25">
+        <v>0.07888668520572513</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.104921</v>
+      </c>
+      <c r="N25">
+        <v>0.314763</v>
+      </c>
+      <c r="O25">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P25">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q25">
+        <v>3.1800733043965</v>
+      </c>
+      <c r="R25">
+        <v>19.080439826379</v>
+      </c>
+      <c r="S25">
+        <v>0.0007139519136957286</v>
+      </c>
+      <c r="T25">
+        <v>0.0005437755195471147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>30.3092165</v>
+      </c>
+      <c r="H26">
+        <v>60.618433</v>
+      </c>
+      <c r="I26">
+        <v>0.1138398053637809</v>
+      </c>
+      <c r="J26">
+        <v>0.07888668520572513</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N26">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P26">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q26">
+        <v>137.1701331764933</v>
+      </c>
+      <c r="R26">
+        <v>548.6805327059731</v>
+      </c>
+      <c r="S26">
+        <v>0.03079579296108099</v>
+      </c>
+      <c r="T26">
+        <v>0.0156369058812309</v>
       </c>
     </row>
   </sheetData>
